--- a/03-PANDAS/data/artwork_colores.xlsx
+++ b/03-PANDAS/data/artwork_colores.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epnecuador-my.sharepoint.com/personal/carlos_sarzosa_epn_edu_ec/Documents/Documentos/University/Semestres/2020-A/Programación en Demanda Python/6.Proyectos/py-sarzosa-saquinga-carlos-eduardo/03-PANDAS/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="114_{F6D19D05-878C-4D51-9179-72BCF94E1475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC492754-9BC6-4EBB-9254-C2ECA0C42723}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2475" yWindow="4140" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artistas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -274,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,11 +344,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,7 +398,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,9 +430,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,6 +482,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,19 +675,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +698,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,7 +706,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -661,7 +714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,7 +746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,7 +754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,7 +770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -741,7 +794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -749,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -781,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -789,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -797,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -813,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -821,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -829,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -837,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -845,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -853,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -861,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -869,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -885,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -893,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -901,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -909,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -917,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -925,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -933,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -941,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -949,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -957,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -965,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -973,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -981,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -989,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -997,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1005,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1013,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1021,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1029,7 +1082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1045,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1053,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1061,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1069,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1077,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1085,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1093,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1101,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1109,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1117,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1125,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1133,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1149,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1157,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1165,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1173,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1181,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1189,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1197,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1205,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1213,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1221,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -1229,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -1237,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -1245,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1253,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1269,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -1277,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -1285,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -1293,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -1301,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -1313,7 +1366,7 @@
   <conditionalFormatting sqref="B2:B85">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="10"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="99"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
